--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>339.4154793333333</v>
+        <v>90.56466633333334</v>
       </c>
       <c r="H2">
-        <v>1018.246438</v>
+        <v>271.693999</v>
       </c>
       <c r="I2">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831797</v>
       </c>
       <c r="J2">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831796</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>7155.493890887684</v>
+        <v>313.0155166728004</v>
       </c>
       <c r="R2">
-        <v>64399.44501798916</v>
+        <v>2817.139650055204</v>
       </c>
       <c r="S2">
-        <v>0.02966088942454735</v>
+        <v>0.002199375228371402</v>
       </c>
       <c r="T2">
-        <v>0.02966088942454735</v>
+        <v>0.002199375228371402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>339.4154793333333</v>
+        <v>90.56466633333334</v>
       </c>
       <c r="H3">
-        <v>1018.246438</v>
+        <v>271.693999</v>
       </c>
       <c r="I3">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831797</v>
       </c>
       <c r="J3">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831796</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>102367.7590267013</v>
+        <v>27314.3168300804</v>
       </c>
       <c r="R3">
-        <v>921309.8312403114</v>
+        <v>245828.8514707236</v>
       </c>
       <c r="S3">
-        <v>0.4243339212400642</v>
+        <v>0.1919215777368748</v>
       </c>
       <c r="T3">
-        <v>0.4243339212400642</v>
+        <v>0.1919215777368748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>339.4154793333333</v>
+        <v>90.56466633333334</v>
       </c>
       <c r="H4">
-        <v>1018.246438</v>
+        <v>271.693999</v>
       </c>
       <c r="I4">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831797</v>
       </c>
       <c r="J4">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831796</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>15659.01787977468</v>
+        <v>4178.223492266695</v>
       </c>
       <c r="R4">
-        <v>140931.1609179721</v>
+        <v>37604.01143040026</v>
       </c>
       <c r="S4">
-        <v>0.06490962118219171</v>
+        <v>0.02935790961793347</v>
       </c>
       <c r="T4">
-        <v>0.06490962118219171</v>
+        <v>0.02935790961793346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>730.9043280000001</v>
       </c>
       <c r="I5">
-        <v>0.3724731861573274</v>
+        <v>0.601197186834308</v>
       </c>
       <c r="J5">
-        <v>0.3724731861573274</v>
+        <v>0.6011971868343079</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>5136.262950352072</v>
+        <v>842.066430283232</v>
       </c>
       <c r="R5">
-        <v>46226.36655316865</v>
+        <v>7578.597872549089</v>
       </c>
       <c r="S5">
-        <v>0.02129079134842119</v>
+        <v>0.005916703641704824</v>
       </c>
       <c r="T5">
-        <v>0.02129079134842119</v>
+        <v>0.005916703641704821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>730.9043280000001</v>
       </c>
       <c r="I6">
-        <v>0.3724731861573274</v>
+        <v>0.601197186834308</v>
       </c>
       <c r="J6">
-        <v>0.3724731861573274</v>
+        <v>0.6011971868343079</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>73480.28466197003</v>
@@ -818,10 +818,10 @@
         <v>661322.5619577303</v>
       </c>
       <c r="S6">
-        <v>0.3045898202803967</v>
+        <v>0.516302576872411</v>
       </c>
       <c r="T6">
-        <v>0.3045898202803967</v>
+        <v>0.5163025768724109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>730.9043280000001</v>
       </c>
       <c r="I7">
-        <v>0.3724731861573274</v>
+        <v>0.601197186834308</v>
       </c>
       <c r="J7">
-        <v>0.3724731861573274</v>
+        <v>0.6011971868343079</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>11240.15121824241</v>
@@ -880,10 +880,10 @@
         <v>101161.3609641817</v>
       </c>
       <c r="S7">
-        <v>0.04659257452850957</v>
+        <v>0.07897790632019223</v>
       </c>
       <c r="T7">
-        <v>0.04659257452850957</v>
+        <v>0.07897790632019219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>213.149757</v>
       </c>
       <c r="I8">
-        <v>0.1086223819958692</v>
+        <v>0.1753239505825123</v>
       </c>
       <c r="J8">
-        <v>0.1086223819958692</v>
+        <v>0.1753239505825123</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>1497.86115338976</v>
+        <v>245.5673719758413</v>
       </c>
       <c r="R8">
-        <v>13480.75038050784</v>
+        <v>2210.106347782572</v>
       </c>
       <c r="S8">
-        <v>0.006208920686885957</v>
+        <v>0.001725456937601275</v>
       </c>
       <c r="T8">
-        <v>0.006208920686885957</v>
+        <v>0.001725456937601275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>213.149757</v>
       </c>
       <c r="I9">
-        <v>0.1086223819958692</v>
+        <v>0.1753239505825123</v>
       </c>
       <c r="J9">
-        <v>0.1086223819958692</v>
+        <v>0.1753239505825123</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>21428.66613315462</v>
@@ -1004,10 +1004,10 @@
         <v>192857.9951983916</v>
       </c>
       <c r="S9">
-        <v>0.08882591563671823</v>
+        <v>0.1505665852327916</v>
       </c>
       <c r="T9">
-        <v>0.08882591563671823</v>
+        <v>0.1505665852327915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>213.149757</v>
       </c>
       <c r="I10">
-        <v>0.1086223819958692</v>
+        <v>0.1753239505825123</v>
       </c>
       <c r="J10">
-        <v>0.1086223819958692</v>
+        <v>0.1753239505825123</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>3277.905751861445</v>
@@ -1066,10 +1066,10 @@
         <v>29501.151766753</v>
       </c>
       <c r="S10">
-        <v>0.01358754567226506</v>
+        <v>0.02303190841211948</v>
       </c>
       <c r="T10">
-        <v>0.01358754567226506</v>
+        <v>0.02303190841211947</v>
       </c>
     </row>
   </sheetData>
